--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A0E91-EB90-4BAD-B30F-C3CC0A8E1B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D3464-7709-4F80-83BC-184E0EAF30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -97,7 +97,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -473,12 +473,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.44140625" style="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" style="1"/>
     <col min="10" max="10" width="8.44140625" style="1"/>
     <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
